--- a/data/Bank_Asset_Choice.xlsx
+++ b/data/Bank_Asset_Choice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hombert\Documents\johanhombert.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDF3C25-EEFD-48F0-BCF6-7B3E8BCD90DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F5EB50-A7D0-4B18-928E-8959658EE29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Assets</t>
   </si>
@@ -69,9 +67,6 @@
   </si>
   <si>
     <t>for sure</t>
-  </si>
-  <si>
-    <t>average</t>
   </si>
   <si>
     <t>expected</t>
@@ -494,18 +489,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="26.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -521,7 +518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -530,11 +527,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -546,7 +543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -555,7 +552,7 @@
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -568,7 +565,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
@@ -579,17 +576,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B11" s="7"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.75">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
@@ -600,10 +597,10 @@
         <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B14" t="s">
         <v>3</v>
       </c>
@@ -614,7 +611,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -629,7 +626,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
@@ -640,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E17" s="9"/>
     </row>
   </sheetData>
